--- a/siyahi.xlsx
+++ b/siyahi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\dea-sent-27-layihe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>s-n</t>
   </si>
@@ -654,6 +654,9 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -683,6 +686,9 @@
       <c r="I6" t="s">
         <v>29</v>
       </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -712,6 +718,9 @@
       <c r="I7" t="s">
         <v>29</v>
       </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -739,6 +748,9 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
     </row>
